--- a/@data/clinic_clean_use.xlsx
+++ b/@data/clinic_clean_use.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lutingchiu/Desktop/Data Scientist Road/@data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CFE5E6-1F2E-4047-B88C-5EC3ECF6F854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AFF094-31F2-3D4C-855A-0C11916A32F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="500" windowWidth="22200" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="68">
   <si>
     <t>Sample ID</t>
   </si>
@@ -142,18 +142,6 @@
     <t>TCGA-2Y-A9HA-01</t>
   </si>
   <si>
-    <t>TCGA-2Y-A9HB-01</t>
-  </si>
-  <si>
-    <t>TCGA-3K-AAZ8-01</t>
-  </si>
-  <si>
-    <t>TCGA-4R-AA8I-01</t>
-  </si>
-  <si>
-    <t>TCGA-5C-A9VG-01</t>
-  </si>
-  <si>
     <t>day</t>
   </si>
   <si>
@@ -187,12 +175,6 @@
     <t>1/1/2029</t>
   </si>
   <si>
-    <t>1/1/2030</t>
-  </si>
-  <si>
-    <t>1/1/2031</t>
-  </si>
-  <si>
     <t>1/2/2020</t>
   </si>
   <si>
@@ -221,12 +203,6 @@
   </si>
   <si>
     <t>1/2/2029</t>
-  </si>
-  <si>
-    <t>1/2/2030</t>
-  </si>
-  <si>
-    <t>1/2/2031</t>
   </si>
   <si>
     <t>Age</t>
@@ -269,12 +245,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -289,8 +271,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,35 +571,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
@@ -624,7 +611,7 @@
         <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K1" t="s">
         <v>3</v>
@@ -633,7 +620,7 @@
         <v>4</v>
       </c>
       <c r="M1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="N1" t="s">
         <v>5</v>
@@ -641,7 +628,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -655,10 +642,10 @@
       <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>0.30030000000000001</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>0</v>
       </c>
       <c r="I2">
@@ -676,7 +663,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -693,10 +680,10 @@
       <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>0.32079999999999997</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>0.05</v>
       </c>
       <c r="I3">
@@ -717,7 +704,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -731,7 +718,7 @@
       <c r="E4">
         <v>6.2199999999999998E-2</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G4">
@@ -761,7 +748,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -775,7 +762,7 @@
       <c r="E5">
         <v>0.31569999999999998</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G5">
@@ -802,7 +789,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -843,7 +830,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -884,7 +871,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -925,7 +912,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -936,7 +923,7 @@
       <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>0.4929</v>
       </c>
       <c r="F9" t="s">
@@ -966,7 +953,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1007,7 +994,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1021,7 +1008,7 @@
       <c r="E11">
         <v>0.20369999999999999</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G11">
@@ -1051,7 +1038,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
@@ -1095,7 +1082,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -1136,7 +1123,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
@@ -1177,7 +1164,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
@@ -1221,7 +1208,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
@@ -1265,7 +1252,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
@@ -1300,7 +1287,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
@@ -1341,7 +1328,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
@@ -1382,7 +1369,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
@@ -1423,7 +1410,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
@@ -1463,167 +1450,6 @@
       </c>
       <c r="N21" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22">
-        <v>66</v>
-      </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22">
-        <v>0.1585</v>
-      </c>
-      <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22">
-        <v>0.315</v>
-      </c>
-      <c r="H22">
-        <v>0.01</v>
-      </c>
-      <c r="I22">
-        <v>67</v>
-      </c>
-      <c r="L22" t="s">
-        <v>10</v>
-      </c>
-      <c r="M22">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23">
-        <v>65</v>
-      </c>
-      <c r="D23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23">
-        <v>0.1333</v>
-      </c>
-      <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23">
-        <v>0.31609999999999999</v>
-      </c>
-      <c r="H23">
-        <v>0.12</v>
-      </c>
-      <c r="I23">
-        <v>128</v>
-      </c>
-      <c r="J23" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" t="s">
-        <v>9</v>
-      </c>
-      <c r="L23" t="s">
-        <v>10</v>
-      </c>
-      <c r="M23">
-        <v>84</v>
-      </c>
-      <c r="N23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24">
-        <v>66</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24">
-        <v>0.12640000000000001</v>
-      </c>
-      <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24">
-        <v>0.56769999999999998</v>
-      </c>
-      <c r="H24">
-        <v>12.87</v>
-      </c>
-      <c r="I24">
-        <v>1057</v>
-      </c>
-      <c r="J24" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" t="s">
-        <v>9</v>
-      </c>
-      <c r="L24" t="s">
-        <v>10</v>
-      </c>
-      <c r="M24">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25">
-        <v>58</v>
-      </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25">
-        <v>0.17069999999999999</v>
-      </c>
-      <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25">
-        <v>0.3039</v>
-      </c>
-      <c r="H25">
-        <v>0.02</v>
-      </c>
-      <c r="I25">
-        <v>128</v>
-      </c>
-      <c r="J25" t="s">
-        <v>9</v>
-      </c>
-      <c r="K25" t="s">
-        <v>9</v>
-      </c>
-      <c r="L25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M25">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
